--- a/data/SWO_Kalmthout_vennencodes_toponiemen.xlsx
+++ b/data/SWO_Kalmthout_vennencodes_toponiemen.xlsx
@@ -15,14 +15,14 @@
     <sheet name="SWO_Kalmthout_vennencodes" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Database">SWO_Kalmthout_vennencodes!$A$1:$B$36</definedName>
+    <definedName name="_xlnm.Database">SWO_Kalmthout_vennencodes!$A$1:$C$36</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="74">
   <si>
     <t>Selcti_ikv</t>
   </si>
@@ -237,7 +237,13 @@
     <t>vroeger ANTKAL0277</t>
   </si>
   <si>
-    <t>ANTKAL0386</t>
+    <t>watertype</t>
+  </si>
+  <si>
+    <t>Zs</t>
+  </si>
+  <si>
+    <t>Zm</t>
   </si>
 </sst>
 </file>
@@ -380,7 +386,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -558,6 +564,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -721,9 +733,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1079,374 +1092,456 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="1" max="2" width="16" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>59</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>69</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>45</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" t="s">
-        <v>39</v>
+        <v>62</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" t="s">
-        <v>40</v>
+        <v>61</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" t="s">
-        <v>46</v>
+        <v>72</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="E25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" t="s">
-        <v>42</v>
+        <v>72</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" t="s">
-        <v>43</v>
+        <v>72</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>68</v>
+        <v>29</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:F29">
+    <sortCondition ref="A2:A29"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data/SWO_Kalmthout_vennencodes_toponiemen.xlsx
+++ b/data/SWO_Kalmthout_vennencodes_toponiemen.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\florian_vanhecke\Documents\Statistiek\Kalmthout_analyse\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Florian\INBO\Projecten\Kalmthout_analyse\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,14 +15,14 @@
     <sheet name="SWO_Kalmthout_vennencodes" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Database">SWO_Kalmthout_vennencodes!$A$1:$C$36</definedName>
+    <definedName name="_xlnm.Database">SWO_Kalmthout_vennencodes!$A$1:$C$35</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="71">
   <si>
     <t>Selcti_ikv</t>
   </si>
@@ -51,9 +51,6 @@
     <t>INBO_HABITAT</t>
   </si>
   <si>
-    <t>ANTKAL0049</t>
-  </si>
-  <si>
     <t>ANTKAL0309</t>
   </si>
   <si>
@@ -87,18 +84,12 @@
     <t>ANTKAL0383</t>
   </si>
   <si>
-    <t>ANTESS0062</t>
-  </si>
-  <si>
     <t>ANTKAL0019</t>
   </si>
   <si>
     <t>INBO_PAS</t>
   </si>
   <si>
-    <t>ANTKAL0354</t>
-  </si>
-  <si>
     <t>ANTKAL0387</t>
   </si>
   <si>
@@ -135,9 +126,6 @@
     <t>Maanwaterven</t>
   </si>
   <si>
-    <t>Bergeendenven</t>
-  </si>
-  <si>
     <t>Klippelbos</t>
   </si>
   <si>
@@ -147,9 +135,6 @@
     <t>Pluisven</t>
   </si>
   <si>
-    <t>Wildven</t>
-  </si>
-  <si>
     <t>Biezenkuilen</t>
   </si>
   <si>
@@ -165,9 +150,6 @@
     <t>Vaartven</t>
   </si>
   <si>
-    <t>Kasteelvijver</t>
-  </si>
-  <si>
     <t>Bomput 1</t>
   </si>
   <si>
@@ -244,12 +226,21 @@
   </si>
   <si>
     <t>Zm</t>
+  </si>
+  <si>
+    <t>ANTKAL0344</t>
+  </si>
+  <si>
+    <t>ANTKAL0385</t>
+  </si>
+  <si>
+    <t>INBO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -386,7 +377,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -564,12 +555,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -736,7 +721,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1092,10 +1077,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,433 +1094,421 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>36</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="C19" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="E19" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>24</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="C23" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="C24" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>61</v>
+        <v>38</v>
+      </c>
+      <c r="E24" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>70</v>
+        <v>26</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
